--- a/Assets/__Project/Excel/Constant/Round.xlsx
+++ b/Assets/__Project/Excel/Constant/Round.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PandaIsPanda\Assets\__Project\Excel\Constant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5D0B1-D99F-45B1-8EED-BFE222A029A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18057C15-554F-480B-9D90-38CD50519BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="3270" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
+    <workbookView xWindow="33630" yWindow="2745" windowWidth="21600" windowHeight="11295" xr2:uid="{39B0813D-EEC4-4950-A89B-04D0AEABF1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,8 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
